--- a/excel/tw_1216.xlsx
+++ b/excel/tw_1216.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="2468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="2470">
   <si>
     <t>index</t>
   </si>
@@ -7418,6 +7418,12 @@
   </si>
   <si>
     <t>2020-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-31 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -7775,7 +7781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2458"/>
+  <dimension ref="A1:L2460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101182,6 +101188,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2459" spans="1:12">
+      <c r="A2459" s="1">
+        <v>2457</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C2459">
+        <v>23689030</v>
+      </c>
+      <c r="D2459">
+        <v>1735472383</v>
+      </c>
+      <c r="E2459">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F2459">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G2459">
+        <v>71.8</v>
+      </c>
+      <c r="H2459">
+        <v>72</v>
+      </c>
+      <c r="I2459">
+        <v>-3.4</v>
+      </c>
+      <c r="J2459">
+        <v>9450</v>
+      </c>
+      <c r="K2459">
+        <v>1216</v>
+      </c>
+      <c r="L2459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:12">
+      <c r="A2460" s="1">
+        <v>2458</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C2460">
+        <v>11901409</v>
+      </c>
+      <c r="D2460">
+        <v>868667417</v>
+      </c>
+      <c r="E2460">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="F2460">
+        <v>73.7</v>
+      </c>
+      <c r="G2460">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="H2460">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="I2460">
+        <v>0.6</v>
+      </c>
+      <c r="J2460">
+        <v>5326</v>
+      </c>
+      <c r="K2460">
+        <v>1216</v>
+      </c>
+      <c r="L2460">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
